--- a/Аспекты тестов/Набор тестов для функции findHeadOfDefinition.xlsx
+++ b/Аспекты тестов/Набор тестов для функции findHeadOfDefinition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Хороший набор тестов" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Наименование</t>
   </si>
@@ -512,6 +511,16 @@
 "int main()"
 "{"
 "return 0;"
+"}"
+, "someFunction"</t>
+  </si>
+  <si>
+    <t>Вызов функции похож на заголовок определения.</t>
+  </si>
+  <si>
+    <t>"int main()"
+"{"
+"    if(!someFunction()) return 0;"
 "}"
 , "someFunction"</t>
   </si>
@@ -1179,7 +1188,7 @@
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -6657,8 +6666,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8849,6 +8858,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="21" spans="1:2" ht="117" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="41"/>
